--- a/test/PerformanceNumbers.xlsx
+++ b/test/PerformanceNumbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="1820" windowWidth="30840" windowHeight="17740" tabRatio="500"/>
+    <workbookView xWindow="860" yWindow="1480" windowWidth="30840" windowHeight="17740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Small Data Set" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Scenario</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average run time (10 Users)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Average run time (25 Users)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -73,7 +69,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Average run time (ms)</t>
+    <t>Average run time (ms) - Outside NCI Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average run time (ms) - Inside NCI Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average run time (10 Users) - Outside NCI Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Average run time (10 Users) - Inside NCI Network</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot be run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cannot be run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -468,23 +484,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="51.7109375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="37" style="2" customWidth="1"/>
-    <col min="5" max="5" width="35.5703125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="10.7109375" style="2"/>
+    <col min="2" max="2" width="63.85546875" style="2" customWidth="1"/>
+    <col min="3" max="4" width="65.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="64.140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="57.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="35.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,40 +509,72 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="F2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2">
         <v>3833</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="C3" s="2">
+        <v>3132</v>
+      </c>
+      <c r="E3" s="2">
+        <v>5161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="2">
         <v>1166</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C4" s="2">
+        <v>2283</v>
+      </c>
+      <c r="E4" s="2">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>1639</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="C5" s="2">
+        <v>2902</v>
+      </c>
+      <c r="E5" s="2">
+        <v>4899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -533,39 +582,64 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:7">
       <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="2">
-        <v>2447</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>3040</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3184</v>
+      </c>
+      <c r="E7" s="2">
+        <v>6508</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="2">
-        <v>3873</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>4419</v>
+      </c>
+      <c r="C8" s="2">
+        <v>5052</v>
+      </c>
+      <c r="E8" s="2">
+        <v>9173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>1747</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2287</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2803</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="2">
-        <v>1600</v>
+        <v>1973</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2348</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2997</v>
       </c>
     </row>
   </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/test/PerformanceNumbers.xlsx
+++ b/test/PerformanceNumbers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="860" yWindow="1480" windowWidth="30840" windowHeight="17740" tabRatio="500"/>
+    <workbookView xWindow="1400" yWindow="1580" windowWidth="30840" windowHeight="17740" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Small Data Set" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Scenario</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,14 +82,6 @@
   </si>
   <si>
     <t>Average run time (10 Users) - Inside NCI Network</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannot be run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Cannot be run</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -524,14 +516,6 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
         <v>1</v>
@@ -545,6 +529,9 @@
       <c r="E3" s="2">
         <v>5161</v>
       </c>
+      <c r="F3" s="2">
+        <v>17107</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3" t="s">
@@ -559,6 +546,9 @@
       <c r="E4" s="2">
         <v>3624</v>
       </c>
+      <c r="F4" s="2">
+        <v>7385</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
@@ -573,6 +563,9 @@
       <c r="E5" s="2">
         <v>4899</v>
       </c>
+      <c r="F5" s="2">
+        <v>8422</v>
+      </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
@@ -595,6 +588,9 @@
       <c r="E7" s="2">
         <v>6508</v>
       </c>
+      <c r="F7" s="2">
+        <v>24064</v>
+      </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
@@ -608,6 +604,9 @@
       </c>
       <c r="E8" s="2">
         <v>9173</v>
+      </c>
+      <c r="F8" s="2">
+        <v>36568</v>
       </c>
     </row>
     <row r="9" spans="1:7">
